--- a/data/trans_dic/P16A04-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16A04-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P16A04-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16A04-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,8%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,68%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,16%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,6%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,48%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,47%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,97%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,7%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,72%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,55%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,07%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>0,82; 3,44</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,43</t>
+          <t>0,91; 3,62</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>0,22; 2,23</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,11</t>
+          <t>0,52; 6,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>0,64; 2,81</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,46</t>
+          <t>2,06; 5,6</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>1,23; 4,26</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,92</t>
+          <t>0,66; 4,76</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>0,99; 2,71</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>1,85; 3,99</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>0,85; 2,68</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,51</t>
+          <t>0,98; 4,06</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,91%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,81%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,17%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,91%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,6%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,41%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,51%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,39%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,69%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,56%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,85%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,71%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>0,4; 1,89</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>1,66; 4,3</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>1,99; 5,08</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,63</t>
+          <t>0,04; 3,41</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>1,48; 4,15</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>2,95; 6,63</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>1,46; 4,27</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>1,29; 4,23</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>1,04; 2,45</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>2,64; 4,93</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>1,92; 3,9</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>0,93; 2,81</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,77%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,31%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,23%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,47%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,03%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,61%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,17%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,74%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,43%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,46%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,2%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,61%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>0,3; 1,77</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>1,32; 3,8</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>1,27; 3,66</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>1,29; 4,11</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>1,06; 3,22</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>1,57; 4,05</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>1,26; 3,63</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>1,72; 4,11</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>0,88; 2,21</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>1,72; 3,44</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>1,51; 3,13</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>1,82; 3,56</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,6%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,95%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,85%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,67%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,39%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,59%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,81%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,73%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,5%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,77%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,33%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,21%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>0,72; 3,08</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>0,87; 3,54</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>0,95; 3,19</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>1,56; 4,37</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>0,59; 2,83</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>0,74; 2,98</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>0,3; 1,79</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>2,4; 7,21</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>0,87; 2,46</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>1,12; 2,7</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>0,78; 2,11</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>2,29; 5,18</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,29%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,1%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,08%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,45%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,29%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,53%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,84%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,78%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,49%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,82%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,14%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>1,77; 5,43</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>1,54; 5,46</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,45</t>
+          <t>0,97; 3,73</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>1,46; 3,85</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,48</t>
+          <t>1,09; 4,16</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>0,92; 3,57</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>2,04; 5,53</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>2,76; 5,21</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>1,77; 4,01</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>1,49; 3,84</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>1,81; 4,21</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>2,45; 4,15</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,4%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,95%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,82%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,7%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,05%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,09%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,43%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,61%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,2%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,88%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,17%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,24%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>2,04; 5,31</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>3,13; 7,59</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>0,97; 3,25</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>1,81; 3,85</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>1,91; 4,42</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>1,96; 4,48</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>1,46; 3,75</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>2,43; 4,84</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>2,26; 4,34</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>2,75; 5,31</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>1,37; 3,13</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>2,49; 4,13</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,79%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,83%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,04%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,32%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,21%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,86%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,26%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,22%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,01%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,85%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,15%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,8%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>1,4; 2,34</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>2,28; 3,57</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>1,6; 2,61</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>1,81; 3,01</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>1,7; 2,77</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>2,37; 3,51</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>1,79; 2,86</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>2,67; 3,99</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>1,69; 2,39</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>2,43; 3,31</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>1,83; 2,59</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>2,41; 3,28</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16A04-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16A04-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,16%</t>
+          <t>1,94%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>1,97%</t>
+          <t>2,3%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>2,07%</t>
+          <t>2,1%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,52; 6,0</t>
+          <t>0,54; 5,36</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,66; 4,76</t>
+          <t>0,93; 5,77</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,14 +779,14 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,98; 4,06</t>
+          <t>1,02; 4,21</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,91%</t>
+          <t>0,93%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>2,39%</t>
+          <t>2,15%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>1,71%</t>
+          <t>1,6%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,04; 3,41</t>
+          <t>0,04; 3,49</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,29; 4,23</t>
+          <t>1,04; 3,8</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,14 +919,14 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,93; 2,81</t>
+          <t>0,86; 2,75</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,47%</t>
+          <t>2,44%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2,74%</t>
+          <t>2,81%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>2,61%</t>
+          <t>2,63%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,29; 4,11</t>
+          <t>1,31; 4,09</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,72; 4,11</t>
+          <t>1,76; 4,21</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,14 +1059,14 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,82; 3,56</t>
+          <t>1,84; 3,57</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,67%</t>
+          <t>2,1%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>3,73%</t>
+          <t>3,45%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>3,21%</t>
+          <t>2,7%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,56; 4,37</t>
+          <t>0,76; 3,59</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,4; 7,21</t>
+          <t>2,26; 6,23</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,14 +1199,14 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>2,29; 5,18</t>
+          <t>1,58; 3,85</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,45%</t>
+          <t>2,5%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>3,84%</t>
+          <t>3,87%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>3,14%</t>
+          <t>3,17%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,46; 3,85</t>
+          <t>1,49; 3,89</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,76; 5,21</t>
+          <t>2,77; 5,2</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,14 +1339,14 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>2,45; 4,15</t>
+          <t>2,47; 4,18</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>3,4%</t>
+          <t>3,07%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>4,95%</t>
+          <t>5,71%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1,82%</t>
+          <t>2,72%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>2,7%</t>
+          <t>2,59%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>3,05%</t>
+          <t>2,89%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>3,09%</t>
+          <t>2,71%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>2,43%</t>
+          <t>2,31%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>3,61%</t>
+          <t>2,27%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>3,2%</t>
+          <t>2,97%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>3,88%</t>
+          <t>4,11%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>2,17%</t>
+          <t>2,51%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>3,24%</t>
+          <t>2,39%</t>
         </is>
       </c>
     </row>
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,04; 5,31</t>
+          <t>1,57; 5,25</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>3,13; 7,59</t>
+          <t>3,11; 9,78</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,97; 3,25</t>
+          <t>1,26; 4,97</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,81; 3,85</t>
+          <t>1,38; 4,14</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,91; 4,42</t>
+          <t>1,58; 5,19</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>1,96; 4,48</t>
+          <t>1,32; 4,92</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>1,46; 3,75</t>
+          <t>0,86; 4,66</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>2,43; 4,84</t>
+          <t>0,74; 3,77</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>2,26; 4,34</t>
+          <t>1,78; 4,38</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>2,75; 5,31</t>
+          <t>2,58; 6,34</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>1,37; 3,13</t>
+          <t>1,51; 4,13</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>2,49; 4,13</t>
+          <t>1,11; 3,42</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,79%</t>
+          <t>3,85%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2,83%</t>
+          <t>4,0%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,04%</t>
+          <t>0,64%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>2,32%</t>
+          <t>2,9%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>2,21%</t>
+          <t>3,22%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>2,86%</t>
+          <t>3,43%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>2,26%</t>
+          <t>2,54%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>3,22%</t>
+          <t>4,42%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>2,01%</t>
+          <t>3,47%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>2,85%</t>
+          <t>3,65%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>2,15%</t>
+          <t>1,8%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>2,8%</t>
+          <t>3,81%</t>
         </is>
       </c>
     </row>
@@ -1564,74 +1564,214 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>1,82; 7,45</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>1,89; 7,86</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 1,95</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>1,72; 5,17</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>1,49; 5,76</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>1,72; 5,45</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>1,24; 4,81</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>3,16; 6,49</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>2,1; 5,64</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>2,25; 5,78</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>0,89; 3,15</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>2,81; 5,11</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>1,79%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>2,83%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>2,04%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>2,17%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>2,21%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>2,86%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>2,26%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>3,05%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>2,01%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>2,85%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>2,15%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>2,63%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>1,4; 2,34</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>2,28; 3,57</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>1,6; 2,61</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>1,81; 3,01</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>1,59; 2,88</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>1,7; 2,77</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>2,37; 3,51</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>1,79; 2,86</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>2,67; 3,99</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>2,42; 3,7</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>1,69; 2,39</t>
         </is>
       </c>
-      <c r="L17" s="2" t="inlineStr">
+      <c r="L19" s="2" t="inlineStr">
         <is>
           <t>2,43; 3,31</t>
         </is>
       </c>
-      <c r="M17" s="2" t="inlineStr">
+      <c r="M19" s="2" t="inlineStr">
         <is>
           <t>1,83; 2,59</t>
         </is>
       </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>2,41; 3,28</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>2,2; 3,07</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1642,6 +1782,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P16A04-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16A04-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,82; 3,44</t>
+          <t>0,83; 3,47</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,91; 3,62</t>
+          <t>1,02; 3,83</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,22; 2,23</t>
+          <t>0,22; 1,67</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,54; 5,36</t>
+          <t>0,53; 5,5</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,64; 2,81</t>
+          <t>0,77; 3,01</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,06; 5,6</t>
+          <t>2,07; 5,47</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,23; 4,26</t>
+          <t>1,24; 4,5</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,93; 5,77</t>
+          <t>0,7; 5,2</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,99; 2,71</t>
+          <t>1,05; 2,67</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,85; 3,99</t>
+          <t>1,85; 4,01</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,85; 2,68</t>
+          <t>0,83; 2,51</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,02; 4,21</t>
+          <t>0,98; 4,71</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,4; 1,89</t>
+          <t>0,39; 1,85</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,66; 4,3</t>
+          <t>1,6; 4,29</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,99; 5,08</t>
+          <t>1,94; 4,83</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,04; 3,49</t>
+          <t>0,04; 3,06</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,48; 4,15</t>
+          <t>1,53; 4,09</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,95; 6,63</t>
+          <t>2,97; 6,78</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,46; 4,27</t>
+          <t>1,46; 4,1</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,04; 3,8</t>
+          <t>1,05; 3,82</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,04; 2,45</t>
+          <t>1,08; 2,45</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2,64; 4,93</t>
+          <t>2,59; 4,79</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,92; 3,9</t>
+          <t>2,01; 4,0</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,86; 2,75</t>
+          <t>0,79; 2,79</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,3; 1,77</t>
+          <t>0,29; 1,71</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,32; 3,8</t>
+          <t>1,37; 3,68</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,27; 3,66</t>
+          <t>1,23; 3,64</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,31; 4,09</t>
+          <t>1,37; 4,12</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,06; 3,22</t>
+          <t>1,12; 3,57</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,57; 4,05</t>
+          <t>1,52; 3,9</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,26; 3,63</t>
+          <t>1,24; 3,66</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,76; 4,21</t>
+          <t>1,81; 4,27</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,88; 2,21</t>
+          <t>0,9; 2,28</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,72; 3,44</t>
+          <t>1,7; 3,44</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,51; 3,13</t>
+          <t>1,43; 3,07</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,84; 3,57</t>
+          <t>1,78; 3,61</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,72; 3,08</t>
+          <t>0,72; 3,31</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,87; 3,54</t>
+          <t>1,06; 3,61</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,95; 3,19</t>
+          <t>0,98; 3,34</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,76; 3,59</t>
+          <t>0,9; 3,63</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,59; 2,83</t>
+          <t>0,59; 2,69</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,74; 2,98</t>
+          <t>0,72; 2,88</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,3; 1,79</t>
+          <t>0,3; 1,78</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,26; 6,23</t>
+          <t>2,22; 6,07</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,87; 2,46</t>
+          <t>0,94; 2,59</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,12; 2,7</t>
+          <t>1,04; 2,73</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,78; 2,11</t>
+          <t>0,77; 2,18</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,58; 3,85</t>
+          <t>1,55; 3,96</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,77; 5,43</t>
+          <t>1,79; 5,6</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,54; 5,46</t>
+          <t>1,61; 4,99</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,97; 3,73</t>
+          <t>1,0; 3,86</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,49; 3,89</t>
+          <t>1,45; 4,17</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,09; 4,16</t>
+          <t>1,05; 4,16</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,92; 3,57</t>
+          <t>0,93; 3,59</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,04; 5,53</t>
+          <t>2,02; 5,68</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,77; 5,2</t>
+          <t>2,79; 5,27</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,77; 4,01</t>
+          <t>1,78; 4,13</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>1,49; 3,84</t>
+          <t>1,48; 3,91</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1,81; 4,21</t>
+          <t>1,83; 4,02</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>2,47; 4,18</t>
+          <t>2,42; 4,13</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,57; 5,25</t>
+          <t>1,58; 5,37</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>3,11; 9,78</t>
+          <t>2,96; 10,11</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,26; 4,97</t>
+          <t>1,26; 5,3</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,38; 4,14</t>
+          <t>1,55; 4,06</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,58; 5,19</t>
+          <t>1,48; 4,85</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>1,32; 4,92</t>
+          <t>1,3; 4,71</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,86; 4,66</t>
+          <t>1,15; 4,7</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,74; 3,77</t>
+          <t>0,8; 3,79</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>1,78; 4,38</t>
+          <t>1,9; 4,45</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>2,58; 6,34</t>
+          <t>2,57; 6,3</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>1,51; 4,13</t>
+          <t>1,46; 4,31</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>1,11; 3,42</t>
+          <t>1,16; 3,43</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,82; 7,45</t>
+          <t>1,72; 7,15</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,89; 7,86</t>
+          <t>1,82; 7,96</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,95</t>
+          <t>0,0; 1,94</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,72; 5,17</t>
+          <t>1,6; 4,91</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,49; 5,76</t>
+          <t>1,65; 6,03</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,72; 5,45</t>
+          <t>1,98; 5,75</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,24; 4,81</t>
+          <t>1,26; 4,83</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>3,16; 6,49</t>
+          <t>3,07; 6,38</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>2,1; 5,64</t>
+          <t>2,04; 5,4</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>2,25; 5,78</t>
+          <t>2,28; 5,71</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0,89; 3,15</t>
+          <t>0,92; 3,35</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>2,81; 5,11</t>
+          <t>2,74; 5,03</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>1,4; 2,34</t>
+          <t>1,4; 2,28</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>2,28; 3,57</t>
+          <t>2,14; 3,48</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1,6; 2,61</t>
+          <t>1,59; 2,59</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1,59; 2,88</t>
+          <t>1,64; 2,82</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>1,7; 2,77</t>
+          <t>1,72; 2,77</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>2,37; 3,51</t>
+          <t>2,35; 3,52</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>1,79; 2,86</t>
+          <t>1,79; 2,89</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>2,42; 3,7</t>
+          <t>2,42; 3,73</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>1,69; 2,39</t>
+          <t>1,68; 2,38</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>2,43; 3,31</t>
+          <t>2,42; 3,29</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>1,83; 2,59</t>
+          <t>1,79; 2,56</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>2,2; 3,07</t>
+          <t>2,21; 3,08</t>
         </is>
       </c>
     </row>
@@ -1787,4 +1788,1839 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha consumido antibióticos en las dos últimas semanas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>8916</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>9057</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>2833</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>7758</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>7465</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>14927</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>9783</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>7211</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>16381</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>23984</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>12616</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>14969</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>4091; 17158</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>4610; 17347</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>919; 6988</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>2134; 21991</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>3586; 14061</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>8886; 23466</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>4906; 17790</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>2199; 16296</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>10057; 25671</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>16319; 35356</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>6747; 20443</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>6954; 33566</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>6708</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>19298</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>18707</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>3944</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>16267</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>26898</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>14143</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>10979</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>22975</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>46196</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>32850</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>14923</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>2900; 13620</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>10978; 29452</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>11482; 28509</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>168; 12953</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>9588; 25555</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>18141; 41373</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>8235; 23093</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>5355; 19524</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>14704; 33277</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>33554; 62097</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>23163; 46181</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>7415; 26126</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>4923</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>15711</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>13109</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>14011</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>18386</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>14323</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>15222</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>18934</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>34097</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>29234</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>28332</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>1865; 10889</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>9286; 24992</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>8215; 24342</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>7356; 22109</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>7739; 24616</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>10745; 27519</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>8179; 24229</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>9835; 23171</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>12004; 30248</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>23477; 47617</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>18960; 40827</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>19250; 38893</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>8326</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>12003</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>11974</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>18678</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>7147</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>9779</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>5238</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>24573</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>15473</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>21782</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>17212</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>43252</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>3732; 17206</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>6498; 22183</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>6363; 21547</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>7992; 32245</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>3027; 13859</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>4394; 17693</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>1957; 11562</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>15853; 43306</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>9769; 26758</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>12823; 33567</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>9912; 28195</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>24863; 63309</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>12709</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>13288</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>9955</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>13995</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>9237</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>8490</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>17555</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>21065</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>21946</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>21778</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>27510</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>35059</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>6911; 21656</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>6908; 21375</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>4756; 18435</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>8125; 23360</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>4244; 16812</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>4143; 16063</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>10049; 28203</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>15228; 28700</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>14044; 32684</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>12983; 34259</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>17844; 39159</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>26743; 45687</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>8990</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>17581</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>9102</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>9527</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>9901</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>9552</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>8743</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>13840</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>18892</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>27133</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>17845</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>23367</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>4612; 15722</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>9098; 31123</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>4219; 17704</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>5721; 14932</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>5063; 16636</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>4590; 16613</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>4351; 17748</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>4877; 23057</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>12067; 28254</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>16976; 41611</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>10423; 30696</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>11303; 33490</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>8091</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>9867</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>1651</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>8183</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>10761</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>13285</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>10179</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>18766</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>18852</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>23152</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>11830</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>26949</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>3605; 15001</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>4486; 19651</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>0; 4990</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>4527; 13848</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>5522; 20144</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>7642; 22249</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>5034; 19323</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>13031; 27070</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>11103; 29349</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>14439; 36170</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>6065; 21996</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>19328; 35542</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>261</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>58663</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>96805</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>69134</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>75194</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>74790</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>101318</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>79964</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>111657</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>133452</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>198123</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>149098</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>186852</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>45782; 74568</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>73191; 118752</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>53948; 87983</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>56889; 97638</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>58066; 93580</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>83466; 124986</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>63427; 102289</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>88403; 136558</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>112047; 158487</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>168636; 229140</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>124314; 177422</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>157336; 219395</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>